--- a/cocos-prog/03-tool/gj/language.xlsx
+++ b/cocos-prog/03-tool/gj/language.xlsx
@@ -1141,7 +1141,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="6" outlineLevelCol="3"/>

--- a/cocos-prog/03-tool/gj/language.xlsx
+++ b/cocos-prog/03-tool/gj/language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15680"/>
+    <workbookView windowHeight="15640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
   <si>
     <t>标题</t>
   </si>
@@ -92,6 +92,138 @@
   </si>
   <si>
     <t>註冊</t>
+  </si>
+  <si>
+    <t>请求参数错误</t>
+  </si>
+  <si>
+    <r>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无效</t>
+    </r>
+  </si>
+  <si>
+    <t>用户不存在</t>
+  </si>
+  <si>
+    <t>账号不存在</t>
+  </si>
+  <si>
+    <t>账号已禁用</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>登录失败（其他原因）</t>
+  </si>
+  <si>
+    <t>角色数量达到上限</t>
+  </si>
+  <si>
+    <t>角色名已存在</t>
+  </si>
+  <si>
+    <t>您的账号异地登录，请重新进入游戏</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>音量</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>宗门</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>属性信息</t>
+  </si>
+  <si>
+    <t>血</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>法力值</t>
+  </si>
+  <si>
+    <t>物理攻击</t>
+  </si>
+  <si>
+    <t>法力攻击</t>
+  </si>
+  <si>
+    <t>物理防御</t>
+  </si>
+  <si>
+    <t>法力防御</t>
+  </si>
+  <si>
+    <t>善恶值</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>发件方</t>
+  </si>
+  <si>
+    <t>邮件主题</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>领取</t>
+  </si>
+  <si>
+    <t>邮件</t>
+  </si>
+  <si>
+    <t>一键领取</t>
+  </si>
+  <si>
+    <t>一键删除</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>请选择您的种族</t>
+  </si>
+  <si>
+    <t>输入名字</t>
+  </si>
+  <si>
+    <t>需要输入账号</t>
+  </si>
+  <si>
+    <t>需要输入密码</t>
   </si>
 </sst>
 </file>
@@ -104,7 +236,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +262,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -271,6 +409,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -621,137 +766,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,6 +917,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1134,17 +1282,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="87" style="1" customWidth="1"/>
@@ -1249,6 +1397,552 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="16" spans="1:4">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>31</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>32</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/cocos-prog/03-tool/gj/language.xlsx
+++ b/cocos-prog/03-tool/gj/language.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
   <si>
     <t>标题</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>token</t>
     </r>
     <r>
@@ -224,6 +230,36 @@
   </si>
   <si>
     <t>需要输入密码</t>
+  </si>
+  <si>
+    <r>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小时</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -896,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,6 +953,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1282,14 +1321,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -1943,6 +1982,34 @@
       </c>
       <c r="D46" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="47" ht="16" spans="1:4">
+      <c r="A47" s="1">
+        <v>261</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" ht="16" spans="1:4">
+      <c r="A48" s="1">
+        <v>262</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
